--- a/biology/Zoologie/Hesperonemastoma/Hesperonemastoma.xlsx
+++ b/biology/Zoologie/Hesperonemastoma/Hesperonemastoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hesperonemastoma est un genre d'opilions dyspnois de la famille des Taracidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (11/04/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (11/04/2023) :
 Hesperonemastoma kepharti (Crosby &amp; Bishop, 1924)
 Hesperonemastoma modestum (Banks, 1894)
 Hesperonemastoma packardi (Roewer, 1914)
@@ -577,9 +593,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Gruber en 1970 dans les Ischyropsalididae. Il est placé dans les Sabaconidae par Giribet, Vogt, Pérez González, Sharma et Kury en 2010[3] puis dans les Taracidae par Schönhofer en 2013[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Gruber en 1970 dans les Ischyropsalididae. Il est placé dans les Sabaconidae par Giribet, Vogt, Pérez González, Sharma et Kury en 2010 puis dans les Taracidae par Schönhofer en 2013.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gruber, 1970 : « Die Nemastoma-Arten Nordamerikas (Ischyropsalididae, Opiliones, Arachnida). » Annalen des Naturhistorischen Museums in Wien, vol. 74, p. 129–144.</t>
         </is>
